--- a/src/main/resources/results/tempiAlgoritmi.xlsx
+++ b/src/main/resources/results/tempiAlgoritmi.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Universita'\Magistrale - Bologna\2° Anno\I Semestre - 2° Anno\SCP - Scalable And Cloud Computing\Progetto\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Universita'\Magistrale - Bologna\2° Anno\I Semestre - 2° Anno\SCP - Scalable And Cloud Computing\Progetto\SCP_DataMiningProject_FP-Growth\src\main\resources\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{398B6E96-C39D-4CF7-8673-A55C9E2B2240}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89E91013-D763-4226-8FCC-62EF8126BB6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{0D229995-9CA3-4D4E-B806-071DE37F7837}"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="9072" xr2:uid="{0D229995-9CA3-4D4E-B806-071DE37F7837}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Grandezza Dataset</t>
   </si>
@@ -45,20 +45,23 @@
     <t>Eclat (ms)</t>
   </si>
   <si>
-    <t>x30</t>
-  </si>
-  <si>
     <t>x1</t>
   </si>
   <si>
     <t>Differenza (s)</t>
+  </si>
+  <si>
+    <t>x10</t>
+  </si>
+  <si>
+    <t>Min Support</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -82,21 +85,52 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="17"/>
+      <b/>
+      <sz val="16"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="17"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor theme="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -104,11 +138,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -116,14 +159,20 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -131,13 +180,49 @@
   </cellStyles>
   <dxfs count="6">
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
       <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -153,13 +238,23 @@
         <vertAlign val="baseline"/>
         <sz val="17"/>
         <color auto="1"/>
-        <name val="Calibri"/>
+        <name val="Arial"/>
         <family val="2"/>
-        <scheme val="minor"/>
+        <scheme val="none"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
       <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -194,14 +289,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{C9D35DCE-1631-436D-95C3-139F381DCC05}" name="Tabella3" displayName="Tabella3" ref="B2:E4" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
-  <autoFilter ref="B2:E4" xr:uid="{C9D35DCE-1631-436D-95C3-139F381DCC05}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{C9D35DCE-1631-436D-95C3-139F381DCC05}" name="Tabella3" displayName="Tabella3" ref="C2:F4" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
+  <autoFilter ref="C2:F4" xr:uid="{C9D35DCE-1631-436D-95C3-139F381DCC05}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{4524534B-3CFA-409B-ADEE-DEB9ACDDB4E0}" name="Grandezza Dataset" dataDxfId="3"/>
     <tableColumn id="2" xr3:uid="{3CD426B1-529D-4A1B-B8E4-1F062DDF1858}" name="Eclat (ms)" dataDxfId="2"/>
     <tableColumn id="3" xr3:uid="{DBFFC6E7-506D-4F08-BEDD-67A922C140AD}" name="Eclat Parallelo (ms)" dataDxfId="1"/>
     <tableColumn id="4" xr3:uid="{2B97BA95-4C34-4825-9C96-3DCBA2C14C89}" name="Differenza (s)" dataDxfId="0">
-      <calculatedColumnFormula>(C3-D3)/1000</calculatedColumnFormula>
+      <calculatedColumnFormula>(D3-E3)/1000</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -505,66 +600,77 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB5AD1EA-6335-44D6-9470-F3383820DCD1}">
-  <dimension ref="B2:E11"/>
+  <dimension ref="B2:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="34" customWidth="1"/>
-    <col min="3" max="5" width="25.77734375" customWidth="1"/>
+    <col min="2" max="2" width="23.21875" customWidth="1"/>
+    <col min="3" max="3" width="34" customWidth="1"/>
+    <col min="4" max="6" width="25.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="1" t="s">
+    <row r="2" spans="2:6" ht="40.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="7">
+        <v>3</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="6">
+        <v>4251</v>
+      </c>
+      <c r="E3" s="6">
+        <v>4159</v>
+      </c>
+      <c r="F3" s="6">
+        <f t="shared" ref="F3:F4" si="0">(D3-E3)/1000</f>
+        <v>9.1999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="7"/>
+      <c r="C4" s="5" t="s">
         <v>5</v>
       </c>
+      <c r="D4" s="6">
+        <v>50631</v>
+      </c>
+      <c r="E4" s="6">
+        <v>38178</v>
+      </c>
+      <c r="F4" s="6">
+        <f t="shared" si="0"/>
+        <v>12.452999999999999</v>
+      </c>
     </row>
-    <row r="3" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="5">
-        <v>33126</v>
-      </c>
-      <c r="D3" s="5">
-        <v>5736</v>
-      </c>
-      <c r="E3" s="5">
-        <f t="shared" ref="E3:E4" si="0">(C3-D3)/1000</f>
-        <v>27.39</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="5">
-        <v>319500</v>
-      </c>
-      <c r="D4" s="5">
-        <v>53198</v>
-      </c>
-      <c r="E4" s="5">
-        <f t="shared" si="0"/>
-        <v>266.30200000000002</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C11" s="4"/>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="D11" s="3"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B3:B4"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <tableParts count="1">

--- a/src/main/resources/results/tempiAlgoritmi.xlsx
+++ b/src/main/resources/results/tempiAlgoritmi.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Universita'\Magistrale - Bologna\2° Anno\I Semestre - 2° Anno\SCP - Scalable And Cloud Computing\Progetto\SCP_DataMiningProject_FP-Growth\src\main\resources\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89E91013-D763-4226-8FCC-62EF8126BB6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47CFA83D-8695-4658-B944-1E7859639D0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="9072" xr2:uid="{0D229995-9CA3-4D4E-B806-071DE37F7837}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{0D229995-9CA3-4D4E-B806-071DE37F7837}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -603,7 +603,7 @@
   <dimension ref="B2:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -632,20 +632,20 @@
     </row>
     <row r="3" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="7">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D3" s="6">
-        <v>4251</v>
+        <v>1145</v>
       </c>
       <c r="E3" s="6">
-        <v>4159</v>
+        <v>921</v>
       </c>
       <c r="F3" s="6">
         <f t="shared" ref="F3:F4" si="0">(D3-E3)/1000</f>
-        <v>9.1999999999999998E-2</v>
+        <v>0.224</v>
       </c>
     </row>
     <row r="4" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -654,14 +654,14 @@
         <v>5</v>
       </c>
       <c r="D4" s="6">
-        <v>50631</v>
+        <v>7528</v>
       </c>
       <c r="E4" s="6">
-        <v>38178</v>
+        <v>3274</v>
       </c>
       <c r="F4" s="6">
         <f t="shared" si="0"/>
-        <v>12.452999999999999</v>
+        <v>4.2539999999999996</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.3">

--- a/src/main/resources/results/tempiAlgoritmi.xlsx
+++ b/src/main/resources/results/tempiAlgoritmi.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Universita'\Magistrale - Bologna\2° Anno\I Semestre - 2° Anno\SCP - Scalable And Cloud Computing\Progetto\SCP_DataMiningProject_FP-Growth\src\main\resources\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47CFA83D-8695-4658-B944-1E7859639D0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AE814BF-8C92-4B15-AC04-D8C899C5B5FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{0D229995-9CA3-4D4E-B806-071DE37F7837}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="384" xr2:uid="{0D229995-9CA3-4D4E-B806-071DE37F7837}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -34,34 +34,112 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
-  <si>
-    <t>Grandezza Dataset</t>
-  </si>
-  <si>
-    <t>Eclat Parallelo (ms)</t>
-  </si>
-  <si>
-    <t>Eclat (ms)</t>
-  </si>
-  <si>
-    <t>x1</t>
-  </si>
-  <si>
-    <t>Differenza (s)</t>
-  </si>
-  <si>
-    <t>x10</t>
-  </si>
-  <si>
-    <t>Min Support</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+  <si>
+    <t>Apriori</t>
+  </si>
+  <si>
+    <t>Eclat</t>
+  </si>
+  <si>
+    <t>FPGrowth</t>
+  </si>
+  <si>
+    <t>datasetKaggleAlimenti</t>
+  </si>
+  <si>
+    <t>Minimo Supporto</t>
+  </si>
+  <si>
+    <t>Tempo 1</t>
+  </si>
+  <si>
+    <t>Tempo 2</t>
+  </si>
+  <si>
+    <t>Tempo 3</t>
+  </si>
+  <si>
+    <t>Tempo 4</t>
+  </si>
+  <si>
+    <t>Tempo 5</t>
+  </si>
+  <si>
+    <t>Tempo 6</t>
+  </si>
+  <si>
+    <t>Tempo 7</t>
+  </si>
+  <si>
+    <t>Tempo 8</t>
+  </si>
+  <si>
+    <t>Tempo 9</t>
+  </si>
+  <si>
+    <t>Tempo 10</t>
+  </si>
+  <si>
+    <t>EclatPar</t>
+  </si>
+  <si>
+    <t>EclatRDD</t>
+  </si>
+  <si>
+    <t>AprioriPar</t>
+  </si>
+  <si>
+    <t>AprioriRDD</t>
+  </si>
+  <si>
+    <t>FPGrowthPar</t>
+  </si>
+  <si>
+    <t>FPGrowthRDD</t>
+  </si>
+  <si>
+    <t>FPGrowthMod</t>
+  </si>
+  <si>
+    <t>FPGrowthModPar</t>
+  </si>
+  <si>
+    <t>FPGrowthModRDD</t>
+  </si>
+  <si>
+    <t>FPGrowthStar</t>
+  </si>
+  <si>
+    <t>FPGrowthStarPar</t>
+  </si>
+  <si>
+    <t>FPGrowthStarRDD</t>
+  </si>
+  <si>
+    <t>NonordFP</t>
+  </si>
+  <si>
+    <t>NonordFPPar</t>
+  </si>
+  <si>
+    <t>NonordFPRDD</t>
+  </si>
+  <si>
+    <t>FPGrowthSpark</t>
+  </si>
+  <si>
+    <t>Media Tempi</t>
+  </si>
+  <si>
+    <t>Variazione…..</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -70,47 +148,28 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="16"/>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="16"/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="16"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="17"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color theme="0"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -119,18 +178,42 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="1"/>
-        <bgColor theme="1"/>
+        <fgColor theme="4" tint="0.39994506668294322"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="-0.499984740745262"/>
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59996337778862885"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -139,144 +222,335 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
-      <bottom style="medium">
-        <color theme="0"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="15">
     <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="17"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="thin">
+          <color auto="1"/>
+        </horizontal>
+      </border>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFFFCC"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -289,59 +563,66 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{C9D35DCE-1631-436D-95C3-139F381DCC05}" name="Tabella3" displayName="Tabella3" ref="C2:F4" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
-  <autoFilter ref="C2:F4" xr:uid="{C9D35DCE-1631-436D-95C3-139F381DCC05}"/>
-  <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{4524534B-3CFA-409B-ADEE-DEB9ACDDB4E0}" name="Grandezza Dataset" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{3CD426B1-529D-4A1B-B8E4-1F062DDF1858}" name="Eclat (ms)" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{DBFFC6E7-506D-4F08-BEDD-67A922C140AD}" name="Eclat Parallelo (ms)" dataDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{2B97BA95-4C34-4825-9C96-3DCBA2C14C89}" name="Differenza (s)" dataDxfId="0">
-      <calculatedColumnFormula>(D3-E3)/1000</calculatedColumnFormula>
-    </tableColumn>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FDB05F8E-D085-479B-BE86-A99076E57D14}" name="Tabella3" displayName="Tabella3" ref="C2:O59" totalsRowShown="0" headerRowDxfId="14" dataDxfId="0">
+  <autoFilter ref="C2:O59" xr:uid="{FDB05F8E-D085-479B-BE86-A99076E57D14}"/>
+  <tableColumns count="13">
+    <tableColumn id="1" xr3:uid="{4C27A6DB-DFA9-46D4-8009-2569D1DE3461}" name="Minimo Supporto" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{1864354D-0C24-4205-B78E-8C0044A2DDD0}" name="Tempo 1" dataDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{76ED14D0-F6AC-4572-A324-CA5070FD20EA}" name="Tempo 2" dataDxfId="11"/>
+    <tableColumn id="4" xr3:uid="{79E82C06-ED34-4F3E-8DE7-75E4DD8D7181}" name="Tempo 3" dataDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{10D0CB2E-65EE-4232-BB99-393575F51164}" name="Tempo 4" dataDxfId="9"/>
+    <tableColumn id="6" xr3:uid="{E9FF0998-F388-4900-B498-1F75D43AF712}" name="Tempo 5" dataDxfId="8"/>
+    <tableColumn id="7" xr3:uid="{BC810F1B-A722-4D1A-9218-FC0B6CB9DC04}" name="Tempo 6" dataDxfId="7"/>
+    <tableColumn id="8" xr3:uid="{B8E7211D-23EE-472D-9B27-D0C78EB0DF10}" name="Tempo 7" dataDxfId="6"/>
+    <tableColumn id="9" xr3:uid="{5E13E25A-2C74-4E68-A976-B5AB7AD01A16}" name="Tempo 8" dataDxfId="5"/>
+    <tableColumn id="10" xr3:uid="{2F54611D-9452-4479-88CE-754E6076F70D}" name="Tempo 9" dataDxfId="4"/>
+    <tableColumn id="11" xr3:uid="{20C689DF-130C-445D-B414-5252D71D26C0}" name="Tempo 10" dataDxfId="3"/>
+    <tableColumn id="12" xr3:uid="{7F55832C-17F3-4868-95EE-40303CBC8FE9}" name="Media Tempi" dataDxfId="2"/>
+    <tableColumn id="13" xr3:uid="{69B7AEE2-69AA-4D27-BAA4-D5AB29E5F793}" name="Variazione….." dataDxfId="1"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleDark6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema di Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Personalizzato 4">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="C00000"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="000000"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5CB8B3"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="F5D66E"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="D78189"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="7030A0"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="0070C0"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="C4D36D"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="54C3BD"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="54C3BD"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
@@ -600,77 +881,1156 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB5AD1EA-6335-44D6-9470-F3383820DCD1}">
-  <dimension ref="B2:F11"/>
+  <dimension ref="B2:O64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="47" zoomScaleNormal="47" workbookViewId="0">
+      <selection activeCell="G64" sqref="G64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="23.21875" customWidth="1"/>
-    <col min="3" max="3" width="34" customWidth="1"/>
-    <col min="4" max="6" width="25.77734375" customWidth="1"/>
+    <col min="1" max="1" width="3.6640625" customWidth="1"/>
+    <col min="2" max="2" width="32" customWidth="1"/>
+    <col min="3" max="3" width="21.33203125" customWidth="1"/>
+    <col min="4" max="13" width="13.77734375" customWidth="1"/>
+    <col min="14" max="14" width="16.77734375" customWidth="1"/>
+    <col min="15" max="15" width="19.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" ht="40.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="4" t="s">
+    <row r="2" spans="2:15" ht="30" customHeight="1">
+      <c r="B2" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="F2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="2:15" ht="16.05" customHeight="1">
+      <c r="B3" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="C3" s="4">
+        <v>30</v>
+      </c>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+    </row>
+    <row r="4" spans="2:15" ht="16.05" customHeight="1">
+      <c r="B4" s="8"/>
+      <c r="C4" s="4">
+        <v>100</v>
+      </c>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+    </row>
+    <row r="5" spans="2:15" ht="16.05" customHeight="1">
+      <c r="B5" s="8"/>
+      <c r="C5" s="4">
+        <v>1000</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+    </row>
+    <row r="6" spans="2:15" ht="16.05" customHeight="1">
+      <c r="B6" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="4">
+        <v>30</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+    </row>
+    <row r="7" spans="2:15" ht="16.05" customHeight="1">
+      <c r="B7" s="9"/>
+      <c r="C7" s="4">
+        <v>100</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
+    </row>
+    <row r="8" spans="2:15" ht="16.05" customHeight="1">
+      <c r="B8" s="9"/>
+      <c r="C8" s="4">
+        <v>1000</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4"/>
+    </row>
+    <row r="9" spans="2:15" ht="16.05" customHeight="1">
+      <c r="B9" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="4">
+        <v>30</v>
+      </c>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4"/>
+    </row>
+    <row r="10" spans="2:15" ht="16.05" customHeight="1">
+      <c r="B10" s="10"/>
+      <c r="C10" s="4">
+        <v>100</v>
+      </c>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4"/>
+    </row>
+    <row r="11" spans="2:15" ht="16.05" customHeight="1">
+      <c r="B11" s="10"/>
+      <c r="C11" s="4">
+        <v>1000</v>
+      </c>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
+    </row>
+    <row r="12" spans="2:15" ht="16.05" customHeight="1">
+      <c r="B12" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="4">
+        <v>30</v>
+      </c>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="4"/>
+    </row>
+    <row r="13" spans="2:15" ht="16.05" customHeight="1">
+      <c r="B13" s="8"/>
+      <c r="C13" s="4">
+        <v>100</v>
+      </c>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4"/>
+      <c r="O13" s="4"/>
+    </row>
+    <row r="14" spans="2:15" ht="16.05" customHeight="1">
+      <c r="B14" s="8"/>
+      <c r="C14" s="4">
+        <v>1000</v>
+      </c>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4"/>
+      <c r="O14" s="4"/>
+    </row>
+    <row r="15" spans="2:15" ht="16.05" customHeight="1">
+      <c r="B15" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="4">
+        <v>30</v>
+      </c>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
+      <c r="O15" s="4"/>
+    </row>
+    <row r="16" spans="2:15" ht="16.05" customHeight="1">
+      <c r="B16" s="9"/>
+      <c r="C16" s="4">
+        <v>100</v>
+      </c>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="4"/>
+      <c r="O16" s="4"/>
+    </row>
+    <row r="17" spans="2:15" ht="16.05" customHeight="1">
+      <c r="B17" s="9"/>
+      <c r="C17" s="4">
+        <v>1000</v>
+      </c>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="4"/>
+      <c r="O17" s="4"/>
+    </row>
+    <row r="18" spans="2:15" ht="16.05" customHeight="1">
+      <c r="B18" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="4">
+        <v>30</v>
+      </c>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4"/>
+      <c r="N18" s="4"/>
+      <c r="O18" s="4"/>
+    </row>
+    <row r="19" spans="2:15" ht="16.05" customHeight="1">
+      <c r="B19" s="10"/>
+      <c r="C19" s="4">
+        <v>100</v>
+      </c>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
+      <c r="N19" s="4"/>
+      <c r="O19" s="4"/>
+    </row>
+    <row r="20" spans="2:15" ht="16.05" customHeight="1">
+      <c r="B20" s="10"/>
+      <c r="C20" s="4">
+        <v>1000</v>
+      </c>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
+      <c r="N20" s="4"/>
+      <c r="O20" s="4"/>
+    </row>
+    <row r="21" spans="2:15" ht="16.05" customHeight="1">
+      <c r="B21" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="7">
+      <c r="C21" s="4">
         <v>30</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="6">
-        <v>1145</v>
-      </c>
-      <c r="E3" s="6">
-        <v>921</v>
-      </c>
-      <c r="F3" s="6">
-        <f t="shared" ref="F3:F4" si="0">(D3-E3)/1000</f>
-        <v>0.224</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="7"/>
-      <c r="C4" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="6">
-        <v>7528</v>
-      </c>
-      <c r="E4" s="6">
-        <v>3274</v>
-      </c>
-      <c r="F4" s="6">
-        <f t="shared" si="0"/>
-        <v>4.2539999999999996</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="D11" s="3"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="4"/>
+      <c r="N21" s="4"/>
+      <c r="O21" s="4"/>
+    </row>
+    <row r="22" spans="2:15" ht="16.05" customHeight="1">
+      <c r="B22" s="8"/>
+      <c r="C22" s="4">
+        <v>100</v>
+      </c>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4"/>
+      <c r="M22" s="4"/>
+      <c r="N22" s="4"/>
+      <c r="O22" s="4"/>
+    </row>
+    <row r="23" spans="2:15" ht="16.05" customHeight="1">
+      <c r="B23" s="8"/>
+      <c r="C23" s="4">
+        <v>1000</v>
+      </c>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="4"/>
+      <c r="M23" s="4"/>
+      <c r="N23" s="4"/>
+      <c r="O23" s="4"/>
+    </row>
+    <row r="24" spans="2:15" ht="16.05" customHeight="1">
+      <c r="B24" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C24" s="4">
+        <v>30</v>
+      </c>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="4"/>
+      <c r="M24" s="4"/>
+      <c r="N24" s="4"/>
+      <c r="O24" s="4"/>
+    </row>
+    <row r="25" spans="2:15" ht="16.05" customHeight="1">
+      <c r="B25" s="9"/>
+      <c r="C25" s="4">
+        <v>100</v>
+      </c>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="4"/>
+      <c r="M25" s="4"/>
+      <c r="N25" s="4"/>
+      <c r="O25" s="4"/>
+    </row>
+    <row r="26" spans="2:15" ht="16.05" customHeight="1">
+      <c r="B26" s="9"/>
+      <c r="C26" s="4">
+        <v>1000</v>
+      </c>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="4"/>
+      <c r="L26" s="4"/>
+      <c r="M26" s="4"/>
+      <c r="N26" s="4"/>
+      <c r="O26" s="4"/>
+    </row>
+    <row r="27" spans="2:15" ht="16.05" customHeight="1">
+      <c r="B27" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C27" s="4">
+        <v>30</v>
+      </c>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="4"/>
+      <c r="M27" s="4"/>
+      <c r="N27" s="4"/>
+      <c r="O27" s="4"/>
+    </row>
+    <row r="28" spans="2:15" ht="16.05" customHeight="1">
+      <c r="B28" s="10"/>
+      <c r="C28" s="4">
+        <v>100</v>
+      </c>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="4"/>
+      <c r="L28" s="4"/>
+      <c r="M28" s="4"/>
+      <c r="N28" s="4"/>
+      <c r="O28" s="4"/>
+    </row>
+    <row r="29" spans="2:15" ht="16.05" customHeight="1">
+      <c r="B29" s="10"/>
+      <c r="C29" s="4">
+        <v>1000</v>
+      </c>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
+      <c r="K29" s="4"/>
+      <c r="L29" s="4"/>
+      <c r="M29" s="4"/>
+      <c r="N29" s="4"/>
+      <c r="O29" s="4"/>
+    </row>
+    <row r="30" spans="2:15" ht="16.05" customHeight="1">
+      <c r="B30" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C30" s="4">
+        <v>30</v>
+      </c>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="4"/>
+      <c r="K30" s="4"/>
+      <c r="L30" s="4"/>
+      <c r="M30" s="4"/>
+      <c r="N30" s="4"/>
+      <c r="O30" s="4"/>
+    </row>
+    <row r="31" spans="2:15" ht="16.05" customHeight="1">
+      <c r="B31" s="8"/>
+      <c r="C31" s="4">
+        <v>100</v>
+      </c>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="4"/>
+      <c r="K31" s="4"/>
+      <c r="L31" s="4"/>
+      <c r="M31" s="4"/>
+      <c r="N31" s="4"/>
+      <c r="O31" s="4"/>
+    </row>
+    <row r="32" spans="2:15" ht="16.05" customHeight="1">
+      <c r="B32" s="8"/>
+      <c r="C32" s="4">
+        <v>1000</v>
+      </c>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="4"/>
+      <c r="K32" s="4"/>
+      <c r="L32" s="4"/>
+      <c r="M32" s="4"/>
+      <c r="N32" s="4"/>
+      <c r="O32" s="4"/>
+    </row>
+    <row r="33" spans="2:15" ht="16.05" customHeight="1">
+      <c r="B33" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C33" s="4">
+        <v>30</v>
+      </c>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="4"/>
+      <c r="K33" s="4"/>
+      <c r="L33" s="4"/>
+      <c r="M33" s="4"/>
+      <c r="N33" s="4"/>
+      <c r="O33" s="4"/>
+    </row>
+    <row r="34" spans="2:15" ht="16.05" customHeight="1">
+      <c r="B34" s="9"/>
+      <c r="C34" s="4">
+        <v>100</v>
+      </c>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="4"/>
+      <c r="J34" s="4"/>
+      <c r="K34" s="4"/>
+      <c r="L34" s="4"/>
+      <c r="M34" s="4"/>
+      <c r="N34" s="4"/>
+      <c r="O34" s="4"/>
+    </row>
+    <row r="35" spans="2:15" ht="16.05" customHeight="1">
+      <c r="B35" s="9"/>
+      <c r="C35" s="4">
+        <v>1000</v>
+      </c>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="4"/>
+      <c r="J35" s="4"/>
+      <c r="K35" s="4"/>
+      <c r="L35" s="4"/>
+      <c r="M35" s="4"/>
+      <c r="N35" s="4"/>
+      <c r="O35" s="4"/>
+    </row>
+    <row r="36" spans="2:15" ht="16.05" customHeight="1">
+      <c r="B36" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" s="4">
+        <v>30</v>
+      </c>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="4"/>
+      <c r="J36" s="4"/>
+      <c r="K36" s="4"/>
+      <c r="L36" s="4"/>
+      <c r="M36" s="4"/>
+      <c r="N36" s="4"/>
+      <c r="O36" s="4"/>
+    </row>
+    <row r="37" spans="2:15" ht="16.05" customHeight="1">
+      <c r="B37" s="10"/>
+      <c r="C37" s="4">
+        <v>100</v>
+      </c>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="4"/>
+      <c r="I37" s="4"/>
+      <c r="J37" s="4"/>
+      <c r="K37" s="4"/>
+      <c r="L37" s="4"/>
+      <c r="M37" s="4"/>
+      <c r="N37" s="4"/>
+      <c r="O37" s="4"/>
+    </row>
+    <row r="38" spans="2:15" ht="16.05" customHeight="1">
+      <c r="B38" s="10"/>
+      <c r="C38" s="4">
+        <v>1000</v>
+      </c>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="4"/>
+      <c r="I38" s="4"/>
+      <c r="J38" s="4"/>
+      <c r="K38" s="4"/>
+      <c r="L38" s="4"/>
+      <c r="M38" s="4"/>
+      <c r="N38" s="4"/>
+      <c r="O38" s="4"/>
+    </row>
+    <row r="39" spans="2:15" ht="16.05" customHeight="1">
+      <c r="B39" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C39" s="4">
+        <v>30</v>
+      </c>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4"/>
+      <c r="H39" s="4"/>
+      <c r="I39" s="4"/>
+      <c r="J39" s="4"/>
+      <c r="K39" s="4"/>
+      <c r="L39" s="4"/>
+      <c r="M39" s="4"/>
+      <c r="N39" s="4"/>
+      <c r="O39" s="4"/>
+    </row>
+    <row r="40" spans="2:15" ht="16.05" customHeight="1">
+      <c r="B40" s="8"/>
+      <c r="C40" s="4">
+        <v>100</v>
+      </c>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
+      <c r="H40" s="4"/>
+      <c r="I40" s="4"/>
+      <c r="J40" s="4"/>
+      <c r="K40" s="4"/>
+      <c r="L40" s="4"/>
+      <c r="M40" s="4"/>
+      <c r="N40" s="4"/>
+      <c r="O40" s="4"/>
+    </row>
+    <row r="41" spans="2:15" ht="16.05" customHeight="1">
+      <c r="B41" s="8"/>
+      <c r="C41" s="4">
+        <v>1000</v>
+      </c>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="4"/>
+      <c r="H41" s="4"/>
+      <c r="I41" s="4"/>
+      <c r="J41" s="4"/>
+      <c r="K41" s="4"/>
+      <c r="L41" s="4"/>
+      <c r="M41" s="4"/>
+      <c r="N41" s="4"/>
+      <c r="O41" s="4"/>
+    </row>
+    <row r="42" spans="2:15" ht="16.05" customHeight="1">
+      <c r="B42" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C42" s="4">
+        <v>30</v>
+      </c>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="4"/>
+      <c r="H42" s="4"/>
+      <c r="I42" s="4"/>
+      <c r="J42" s="4"/>
+      <c r="K42" s="4"/>
+      <c r="L42" s="4"/>
+      <c r="M42" s="4"/>
+      <c r="N42" s="4"/>
+      <c r="O42" s="4"/>
+    </row>
+    <row r="43" spans="2:15" ht="16.05" customHeight="1">
+      <c r="B43" s="9"/>
+      <c r="C43" s="4">
+        <v>100</v>
+      </c>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="4"/>
+      <c r="H43" s="4"/>
+      <c r="I43" s="4"/>
+      <c r="J43" s="4"/>
+      <c r="K43" s="4"/>
+      <c r="L43" s="4"/>
+      <c r="M43" s="4"/>
+      <c r="N43" s="4"/>
+      <c r="O43" s="4"/>
+    </row>
+    <row r="44" spans="2:15" ht="16.05" customHeight="1">
+      <c r="B44" s="9"/>
+      <c r="C44" s="4">
+        <v>1000</v>
+      </c>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="4"/>
+      <c r="H44" s="4"/>
+      <c r="I44" s="4"/>
+      <c r="J44" s="4"/>
+      <c r="K44" s="4"/>
+      <c r="L44" s="4"/>
+      <c r="M44" s="4"/>
+      <c r="N44" s="4"/>
+      <c r="O44" s="4"/>
+    </row>
+    <row r="45" spans="2:15" ht="16.05" customHeight="1">
+      <c r="B45" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C45" s="4">
+        <v>30</v>
+      </c>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="4"/>
+      <c r="H45" s="4"/>
+      <c r="I45" s="4"/>
+      <c r="J45" s="4"/>
+      <c r="K45" s="4"/>
+      <c r="L45" s="4"/>
+      <c r="M45" s="4"/>
+      <c r="N45" s="4"/>
+      <c r="O45" s="4"/>
+    </row>
+    <row r="46" spans="2:15" ht="16.05" customHeight="1">
+      <c r="B46" s="10"/>
+      <c r="C46" s="4">
+        <v>100</v>
+      </c>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="4"/>
+      <c r="G46" s="4"/>
+      <c r="H46" s="4"/>
+      <c r="I46" s="4"/>
+      <c r="J46" s="4"/>
+      <c r="K46" s="4"/>
+      <c r="L46" s="4"/>
+      <c r="M46" s="4"/>
+      <c r="N46" s="4"/>
+      <c r="O46" s="4"/>
+    </row>
+    <row r="47" spans="2:15" ht="16.05" customHeight="1">
+      <c r="B47" s="10"/>
+      <c r="C47" s="4">
+        <v>1000</v>
+      </c>
+      <c r="D47" s="4"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="4"/>
+      <c r="G47" s="4"/>
+      <c r="H47" s="4"/>
+      <c r="I47" s="4"/>
+      <c r="J47" s="4"/>
+      <c r="K47" s="4"/>
+      <c r="L47" s="4"/>
+      <c r="M47" s="4"/>
+      <c r="N47" s="4"/>
+      <c r="O47" s="4"/>
+    </row>
+    <row r="48" spans="2:15" ht="16.05" customHeight="1">
+      <c r="B48" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C48" s="4">
+        <v>30</v>
+      </c>
+      <c r="D48" s="4"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="4"/>
+      <c r="G48" s="4"/>
+      <c r="H48" s="4"/>
+      <c r="I48" s="4"/>
+      <c r="J48" s="4"/>
+      <c r="K48" s="4"/>
+      <c r="L48" s="4"/>
+      <c r="M48" s="4"/>
+      <c r="N48" s="4"/>
+      <c r="O48" s="4"/>
+    </row>
+    <row r="49" spans="2:15" ht="16.05" customHeight="1">
+      <c r="B49" s="8"/>
+      <c r="C49" s="4">
+        <v>100</v>
+      </c>
+      <c r="D49" s="4"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="4"/>
+      <c r="G49" s="4"/>
+      <c r="H49" s="4"/>
+      <c r="I49" s="4"/>
+      <c r="J49" s="4"/>
+      <c r="K49" s="4"/>
+      <c r="L49" s="4"/>
+      <c r="M49" s="4"/>
+      <c r="N49" s="4"/>
+      <c r="O49" s="4"/>
+    </row>
+    <row r="50" spans="2:15" ht="16.05" customHeight="1">
+      <c r="B50" s="8"/>
+      <c r="C50" s="4">
+        <v>1000</v>
+      </c>
+      <c r="D50" s="4"/>
+      <c r="E50" s="4"/>
+      <c r="F50" s="4"/>
+      <c r="G50" s="4"/>
+      <c r="H50" s="4"/>
+      <c r="I50" s="4"/>
+      <c r="J50" s="4"/>
+      <c r="K50" s="4"/>
+      <c r="L50" s="4"/>
+      <c r="M50" s="4"/>
+      <c r="N50" s="4"/>
+      <c r="O50" s="4"/>
+    </row>
+    <row r="51" spans="2:15" ht="16.05" customHeight="1">
+      <c r="B51" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C51" s="4">
+        <v>30</v>
+      </c>
+      <c r="D51" s="4"/>
+      <c r="E51" s="4"/>
+      <c r="F51" s="4"/>
+      <c r="G51" s="4"/>
+      <c r="H51" s="4"/>
+      <c r="I51" s="4"/>
+      <c r="J51" s="4"/>
+      <c r="K51" s="4"/>
+      <c r="L51" s="4"/>
+      <c r="M51" s="4"/>
+      <c r="N51" s="4"/>
+      <c r="O51" s="4"/>
+    </row>
+    <row r="52" spans="2:15" ht="16.05" customHeight="1">
+      <c r="B52" s="9"/>
+      <c r="C52" s="4">
+        <v>100</v>
+      </c>
+      <c r="D52" s="4"/>
+      <c r="E52" s="4"/>
+      <c r="F52" s="4"/>
+      <c r="G52" s="4"/>
+      <c r="H52" s="4"/>
+      <c r="I52" s="4"/>
+      <c r="J52" s="4"/>
+      <c r="K52" s="4"/>
+      <c r="L52" s="4"/>
+      <c r="M52" s="4"/>
+      <c r="N52" s="4"/>
+      <c r="O52" s="4"/>
+    </row>
+    <row r="53" spans="2:15" ht="16.05" customHeight="1">
+      <c r="B53" s="9"/>
+      <c r="C53" s="4">
+        <v>1000</v>
+      </c>
+      <c r="D53" s="4"/>
+      <c r="E53" s="4"/>
+      <c r="F53" s="4"/>
+      <c r="G53" s="4"/>
+      <c r="H53" s="4"/>
+      <c r="I53" s="4"/>
+      <c r="J53" s="4"/>
+      <c r="K53" s="4"/>
+      <c r="L53" s="4"/>
+      <c r="M53" s="4"/>
+      <c r="N53" s="4"/>
+      <c r="O53" s="4"/>
+    </row>
+    <row r="54" spans="2:15" ht="16.05" customHeight="1">
+      <c r="B54" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C54" s="4">
+        <v>30</v>
+      </c>
+      <c r="D54" s="4"/>
+      <c r="E54" s="4"/>
+      <c r="F54" s="4"/>
+      <c r="G54" s="4"/>
+      <c r="H54" s="4"/>
+      <c r="I54" s="4"/>
+      <c r="J54" s="4"/>
+      <c r="K54" s="4"/>
+      <c r="L54" s="4"/>
+      <c r="M54" s="4"/>
+      <c r="N54" s="4"/>
+      <c r="O54" s="4"/>
+    </row>
+    <row r="55" spans="2:15" ht="16.05" customHeight="1">
+      <c r="B55" s="10"/>
+      <c r="C55" s="4">
+        <v>100</v>
+      </c>
+      <c r="D55" s="4"/>
+      <c r="E55" s="4"/>
+      <c r="F55" s="4"/>
+      <c r="G55" s="4"/>
+      <c r="H55" s="4"/>
+      <c r="I55" s="4"/>
+      <c r="J55" s="4"/>
+      <c r="K55" s="4"/>
+      <c r="L55" s="4"/>
+      <c r="M55" s="4"/>
+      <c r="N55" s="4"/>
+      <c r="O55" s="4"/>
+    </row>
+    <row r="56" spans="2:15" ht="16.05" customHeight="1">
+      <c r="B56" s="10"/>
+      <c r="C56" s="4">
+        <v>1000</v>
+      </c>
+      <c r="D56" s="4"/>
+      <c r="E56" s="4"/>
+      <c r="F56" s="4"/>
+      <c r="G56" s="4"/>
+      <c r="H56" s="4"/>
+      <c r="I56" s="4"/>
+      <c r="J56" s="4"/>
+      <c r="K56" s="4"/>
+      <c r="L56" s="4"/>
+      <c r="M56" s="4"/>
+      <c r="N56" s="5"/>
+      <c r="O56" s="5"/>
+    </row>
+    <row r="57" spans="2:15" ht="16.05" customHeight="1">
+      <c r="B57" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C57" s="6">
+        <v>30</v>
+      </c>
+      <c r="D57" s="6"/>
+      <c r="E57" s="6"/>
+      <c r="F57" s="6"/>
+      <c r="G57" s="6"/>
+      <c r="H57" s="6"/>
+      <c r="I57" s="6"/>
+      <c r="J57" s="6"/>
+      <c r="K57" s="6"/>
+      <c r="L57" s="6"/>
+      <c r="M57" s="6"/>
+      <c r="N57" s="6"/>
+      <c r="O57" s="6"/>
+    </row>
+    <row r="58" spans="2:15" ht="16.05" customHeight="1">
+      <c r="B58" s="11"/>
+      <c r="C58" s="7">
+        <v>100</v>
+      </c>
+      <c r="D58" s="7"/>
+      <c r="E58" s="7"/>
+      <c r="F58" s="7"/>
+      <c r="G58" s="7"/>
+      <c r="H58" s="7"/>
+      <c r="I58" s="7"/>
+      <c r="J58" s="7"/>
+      <c r="K58" s="7"/>
+      <c r="L58" s="7"/>
+      <c r="M58" s="7"/>
+      <c r="N58" s="7"/>
+      <c r="O58" s="7"/>
+    </row>
+    <row r="59" spans="2:15" ht="16.05" customHeight="1">
+      <c r="B59" s="11"/>
+      <c r="C59" s="6">
+        <v>1000</v>
+      </c>
+      <c r="D59" s="6"/>
+      <c r="E59" s="6"/>
+      <c r="F59" s="6"/>
+      <c r="G59" s="6"/>
+      <c r="H59" s="6"/>
+      <c r="I59" s="6"/>
+      <c r="J59" s="6"/>
+      <c r="K59" s="6"/>
+      <c r="L59" s="6"/>
+      <c r="M59" s="6"/>
+      <c r="N59" s="6"/>
+      <c r="O59" s="6"/>
+    </row>
+    <row r="64" spans="2:15">
+      <c r="G64" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B3:B4"/>
+  <mergeCells count="19">
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="B45:B47"/>
+    <mergeCell ref="B57:B59"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="B30:B32"/>
+    <mergeCell ref="B33:B35"/>
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="B48:B50"/>
+    <mergeCell ref="B51:B53"/>
   </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <tableParts count="1">
